--- a/app/tables/tabla_pf.xlsx
+++ b/app/tables/tabla_pf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,765 +463,765 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.377582561890373</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.00001</t>
+          <t>1.000001</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.877582561890373</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-0.238570067725114</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.377582561890373</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.639012494165259</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.163672606517076</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.238570067725114</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.802685100682335</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-0.107907073894329</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.163672606517076</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.694778026788006</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0734178044940099</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.107907073894329</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.768195831282016</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-0.049030385339597</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.0734178044940099</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.719165445942419</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0331903134791079</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.049030385339597</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.752355759421527</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-0.0222746962837037</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.0331903134791079</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.730081063137823</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0150392782136168</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.0222746962837037</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.74512034135144</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-0.010114032336597</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.0150392782136168</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.735006309014843</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0068202136284027</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.010114032336597</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.741826522643246</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-0.0045907972010145</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.0068202136284027</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.737235725442231</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0030939264360317</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.0045907972010145</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.740329651878263</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-0.0020834135460297</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.0030939264360317</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.738246238332233</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0014037244374277</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.0020834135460297</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.739649962769661</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-0.0009454234126778</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.0014037244374277</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.738704539356983</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0006369129242267</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.0009454234126778</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.73934145228121</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-0.0004290029491069</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.0006369129242267</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.738912449332103</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0002889948036959</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.0004290029491069</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.739201444135799</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-0.000194664354986</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.0002889948036959</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.739006779780813</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0001311309814798</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.000194664354986</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.739137910762293</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-8.83301670843162e-05</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.0001311309814798</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.739049580595209</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.95008253181373e-05</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>8.83301670843162e-05</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.739109081420527</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-4.0080216515137e-05</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>5.95008253181373e-05</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.739069001204012</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.69986317431581e-05</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>4.0080216515137e-05</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.739095999835755</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1.8186550579502e-05</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.69986317431581e-05</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.739077813285175</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.22507030757557e-05</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.8186550579502e-05</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.739090063988251</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-8.25221014166821e-06</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.22507030757557e-05</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.739081811778109</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.55879292651884e-06</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>8.25221014166821e-06</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.739087370571036</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-3.74446755613267e-06</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>5.55879292651884e-06</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.73908362610348</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.52231939923409e-06</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>3.74446755613267e-06</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.739086148422879</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1.69906423030941e-06</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.52231939923409e-06</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.739084449358649</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.14451031196783e-06</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.69906423030941e-06</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.739085593868961</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-7.70955819295871e-07</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.14451031196783e-06</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.739084822913141</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.19325156767003e-07</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>7.70955819295871e-07</t>
         </is>
       </c>
     </row>
@@ -1233,12 +1233,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1255,12 +1255,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1277,12 +1277,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1299,12 +1299,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1453,12 +1453,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1497,12 +1497,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1563,1115 +1563,15 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>

--- a/app/tables/tabla_pf.xlsx
+++ b/app/tables/tabla_pf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,12 +468,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.377582561890373</t>
+          <t>0.148721270700128</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.000001</t>
+          <t>1.00001</t>
         </is>
       </c>
     </row>
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.877582561890373</t>
+          <t>0.549573756900043</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.238570067725114</t>
+          <t>0.0837931174570128</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.377582561890373</t>
+          <t>0.0495737569000427</t>
         </is>
       </c>
     </row>
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.639012494165259</t>
+          <t>0.57750479605238</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.163672606517076</t>
+          <t>0.0490730678041857</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.238570067725114</t>
+          <t>0.0279310391523376</t>
         </is>
       </c>
     </row>
@@ -529,17 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.802685100682335</t>
+          <t>0.593862485320442</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.107907073894329</t>
+          <t>0.0293823122161219</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.163672606517076</t>
+          <t>0.0163576892680619</t>
         </is>
       </c>
     </row>
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.694778026788006</t>
+          <t>0.603656589392483</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.0734178044940099</t>
+          <t>0.0178239688042297</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.107907073894329</t>
+          <t>0.0097941040720406</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.768195831282016</t>
+          <t>0.609597912327226</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.049030385339597</t>
+          <t>0.0108977957773946</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0734178044940099</t>
+          <t>0.0059413229347432</t>
         </is>
       </c>
     </row>
@@ -595,17 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.719165445942419</t>
+          <t>0.613230510919691</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.0331903134791079</t>
+          <t>0.0066950136589123</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.049030385339597</t>
+          <t>0.0036325985924649</t>
         </is>
       </c>
     </row>
@@ -617,17 +617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.752355759421527</t>
+          <t>0.615462182139328</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.0222746962837037</t>
+          <t>0.0041251289697155</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.0331903134791079</t>
+          <t>0.0022316712196374</t>
         </is>
       </c>
     </row>
@@ -639,17 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.730081063137823</t>
+          <t>0.616837225129234</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.0150392782136168</t>
+          <t>0.002546283330304</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.0222746962837037</t>
+          <t>0.0013750429899052</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.74512034135144</t>
+          <t>0.617685986239335</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.010114032336597</t>
+          <t>0.0015734711862385</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.0150392782136168</t>
+          <t>0.0008487611101013</t>
         </is>
       </c>
     </row>
@@ -683,17 +683,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.735006309014843</t>
+          <t>0.618210476634748</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.0068202136284027</t>
+          <t>0.0009729915120622</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.010114032336597</t>
+          <t>0.0005244903954129</t>
         </is>
       </c>
     </row>
@@ -705,17 +705,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.741826522643246</t>
+          <t>0.618534807138769</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-0.0045907972010145</t>
+          <t>0.0006019267235835</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.0068202136284027</t>
+          <t>0.0003243305040206</t>
         </is>
       </c>
     </row>
@@ -727,17 +727,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.737235725442231</t>
+          <t>0.618735449379963</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.0030939264360317</t>
+          <t>0.0003724707672452</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.0045907972010145</t>
+          <t>0.0002006422411945</t>
         </is>
       </c>
     </row>
@@ -749,17 +749,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.740329651878263</t>
+          <t>0.618859606302378</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-0.0020834135460297</t>
+          <t>0.0002305214224955</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.0030939264360317</t>
+          <t>0.000124156922415</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.738246238332233</t>
+          <t>0.618936446776543</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.0014037244374277</t>
+          <t>0.0001426835920126</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.0020834135460297</t>
+          <t>7.68404741652295e-05</t>
         </is>
       </c>
     </row>
@@ -793,17 +793,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.739649962769661</t>
+          <t>0.618984007973881</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-0.0009454234126778</t>
+          <t>8.83209619646497e-05</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.0014037244374277</t>
+          <t>4.7561197337509e-05</t>
         </is>
       </c>
     </row>
@@ -815,17 +815,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.738704539356983</t>
+          <t>0.619013448294536</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.0006369129242267</t>
+          <t>5.46726680090703e-05</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.0009454234126778</t>
+          <t>2.94403206548832e-05</t>
         </is>
       </c>
     </row>
@@ -837,17 +837,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.73934145228121</t>
+          <t>0.619031672517205</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-0.0004290029491069</t>
+          <t>3.38444215119971e-05</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.0006369129242267</t>
+          <t>1.82242226696161e-05</t>
         </is>
       </c>
     </row>
@@ -859,17 +859,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.738912449332103</t>
+          <t>0.619042953991043</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.0002889948036959</t>
+          <t>2.09512688491564e-05</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.0004290029491069</t>
+          <t>1.12814738373324e-05</t>
         </is>
       </c>
     </row>
@@ -881,699 +881,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.739201444135799</t>
+          <t>0.619049937747326</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-0.000194664354986</t>
+          <t>1.29699269661998e-05</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.0002889948036959</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>0.739006779780813</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0.0001311309814798</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.000194664354986</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>0.739137910762293</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>-8.83301670843162e-05</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.0001311309814798</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>0.739049580595209</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>5.95008253181373e-05</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>8.83301670843162e-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>0.739109081420527</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>-4.0080216515137e-05</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>5.95008253181373e-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>0.739069001204012</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2.69986317431581e-05</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>4.0080216515137e-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>0.739095999835755</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>-1.8186550579502e-05</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.69986317431581e-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>0.739077813285175</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1.22507030757557e-05</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.8186550579502e-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>0.739090063988251</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>-8.25221014166821e-06</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.22507030757557e-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>0.739081811778109</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>5.55879292651884e-06</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>8.25221014166821e-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>0.739087370571036</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>-3.74446755613267e-06</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>5.55879292651884e-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>0.73908362610348</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>2.52231939923409e-06</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>3.74446755613267e-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>0.739086148422879</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>-1.69906423030941e-06</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2.52231939923409e-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>0.739084449358649</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>1.14451031196783e-06</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1.69906423030941e-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>0.739085593868961</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>-7.70955819295871e-07</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.14451031196783e-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>0.739084822913141</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>5.19325156767003e-07</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>7.70955819295871e-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.0</t>
+          <t>6.98375628305214e-06</t>
         </is>
       </c>
     </row>

--- a/app/tables/tabla_pf.xlsx
+++ b/app/tables/tabla_pf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,17 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.148721270700128</t>
+          <t>-1.86466471676339</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.00001</t>
+          <t>1.000000000001</t>
         </is>
       </c>
     </row>
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.549573756900043</t>
+          <t>0.135335283236613</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.0837931174570128</t>
+          <t>0.738087735256504</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.0495737569000427</t>
+          <t>1.86466471676339</t>
         </is>
       </c>
     </row>
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.57750479605238</t>
+          <t>0.873423018493117</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.0490730678041857</t>
+          <t>-0.455903096505109</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.0279310391523376</t>
+          <t>0.738087735256504</t>
         </is>
       </c>
     </row>
@@ -529,17 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.593862485320442</t>
+          <t>0.417519921988008</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.0293823122161219</t>
+          <t>0.241158447546738</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.0163576892680619</t>
+          <t>0.455903096505109</t>
         </is>
       </c>
     </row>
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.603656589392483</t>
+          <t>0.658678369534746</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.0178239688042297</t>
+          <t>-0.141143496980506</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.0097941040720406</t>
+          <t>0.241158447546738</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.609597912327226</t>
+          <t>0.517534872554239</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.0108977957773946</t>
+          <t>0.0784530522281652</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0059413229347432</t>
+          <t>0.141143496980506</t>
         </is>
       </c>
     </row>
@@ -595,17 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.613230510919691</t>
+          <t>0.595987924782405</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.0066950136589123</t>
+          <t>-0.0449699921698008</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.0036325985924649</t>
+          <t>0.0784530522281652</t>
         </is>
       </c>
     </row>
@@ -617,17 +617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.615462182139328</t>
+          <t>0.551017932612604</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.0041251289697155</t>
+          <t>0.0253448805525519</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.0022316712196374</t>
+          <t>0.0449699921698008</t>
         </is>
       </c>
     </row>
@@ -639,17 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.616837225129234</t>
+          <t>0.576362813165156</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.002546283330304</t>
+          <t>-0.0144242836542591</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.0013750429899052</t>
+          <t>0.0253448805525519</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.617685986239335</t>
+          <t>0.561938529510897</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.0015734711862385</t>
+          <t>0.0081643012898861</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.0008487611101013</t>
+          <t>0.0144242836542591</t>
         </is>
       </c>
     </row>
@@ -683,17 +683,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.618210476634748</t>
+          <t>0.570102830800783</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.0009729915120622</t>
+          <t>-0.0046355425450906</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.0005244903954129</t>
+          <t>0.0081643012898861</t>
         </is>
       </c>
     </row>
@@ -705,17 +705,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.618534807138769</t>
+          <t>0.565467288255692</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.0006019267235835</t>
+          <t>0.0026273325236823</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.0003243305040206</t>
+          <t>0.0046355425450906</t>
         </is>
       </c>
     </row>
@@ -727,17 +727,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.618735449379963</t>
+          <t>0.568094620779374</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.0003724707672452</t>
+          <t>-0.0014906144463345</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.0002006422411945</t>
+          <t>0.0026273325236823</t>
         </is>
       </c>
     </row>
@@ -749,17 +749,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.618859606302378</t>
+          <t>0.56660400633304</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.0002305214224955</t>
+          <t>0.0008452179077015</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.000124156922415</t>
+          <t>0.0014906144463345</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.618936446776543</t>
+          <t>0.567449224240741</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.0001426835920126</t>
+          <t>-0.0004794156121683</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7.68404741652295e-05</t>
+          <t>0.0008452179077015</t>
         </is>
       </c>
     </row>
@@ -793,17 +793,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.618984007973881</t>
+          <t>0.566969808628573</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>8.83209619646497e-05</t>
+          <t>0.0002718793442784</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.7561197337509e-05</t>
+          <t>0.0004794156121683</t>
         </is>
       </c>
     </row>
@@ -815,17 +815,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.619013448294536</t>
+          <t>0.567241687972851</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>5.46726680090703e-05</t>
+          <t>-0.0001542003352805</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.94403206548832e-05</t>
+          <t>0.0002718793442784</t>
         </is>
       </c>
     </row>
@@ -837,17 +837,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.619031672517205</t>
+          <t>0.567087487637571</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>3.38444215119971e-05</t>
+          <t>8.745182310399e-05</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1.82242226696161e-05</t>
+          <t>0.0001542003352805</t>
         </is>
       </c>
     </row>
@@ -859,17 +859,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.619042953991043</t>
+          <t>0.567174939460675</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2.09512688491564e-05</t>
+          <t>-4.95983137116518e-05</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.12814738373324e-05</t>
+          <t>8.745182310399e-05</t>
         </is>
       </c>
     </row>
@@ -881,17 +881,699 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.619049937747326</t>
+          <t>0.567125341146963</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.29699269661998e-05</t>
+          <t>2.81291581577525e-05</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>6.98375628305214e-06</t>
+          <t>4.95983137116518e-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0.567153470305121</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>-1.59533252881428e-05</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.81291581577525e-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0.567137516979833</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>9.04780146260276e-06</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.59533252881428e-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0.567146564781295</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>-5.13140630431508e-06</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.04780146260276e-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0.567141433374991</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2.91024059340117e-06</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.13140630431508e-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0.567144343615585</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>-1.65052408940269e-06</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.91024059340117e-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0.567142693091495</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>9.36083449643021e-07</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.65052408940269e-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0.567143629174945</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>-5.3089351637059e-07</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.36083449643021e-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0.567143098281428</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>3.0109267368239e-07</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.3089351637059e-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0.567143399374102</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>-1.7076269676064e-07</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.0109267368239e-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0.567143228611405</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>9.68469153761475e-08</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.7076269676064e-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0.567143325458321</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>-5.49260790183581e-08</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.68469153761475e-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0.567143270532242</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>3.11509570360968e-08</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.49260790183581e-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0.567143301683199</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>-1.76670563734049e-08</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.11509570360968e-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>0.567143284016142</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1.00197524721679e-08</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.76670563734049e-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>0.567143294035895</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>-5.68263536226965e-09</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.00197524721679e-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>0.567143288353259</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>3.2228684165858104e-09</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.68263536226965e-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0.567143291576128</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>-1.8278281110895e-09</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.2228684165858104e-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0.5671432897483</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1.0366404401551701e-09</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.8278281110895e-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>0.56714329078494</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>-5.87923709716165e-10</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.0366404401551701e-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0.567143290197016</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>3.33436944721655e-10</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.87923709716165e-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0.567143290530453</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>-1.89106508230452e-10</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.33436944721655e-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0.567143290341347</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1.07250541780957e-10</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.89106508230452e-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0.567143290448597</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>-6.08264549839532e-11</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.07250541780957e-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0.567143290387771</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>3.4497293910362695e-11</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.08264549839532e-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0.567143290422268</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>-1.95649052514568e-11</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.4497293910362695e-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0.567143290402703</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1.10961240196161e-11</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.95649052514568e-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>0.5671432904138</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>-6.29307717048277e-12</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.10961240196161e-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0.567143290407506</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>3.56903395726249e-12</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.29307717048277e-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0.567143290411075</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>-2.02415861849659e-12</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.56903395726249e-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0.567143290409051</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1.14808162976487e-12</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.02415861849659e-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0.567143290410199</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>-6.51145803942654e-13</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.14808162976487e-12</t>
         </is>
       </c>
     </row>

--- a/app/tables/tabla_pf.xlsx
+++ b/app/tables/tabla_pf.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,17 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0.0701665833531719</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.000001</t>
+          <t>1.0005</t>
         </is>
       </c>
     </row>
@@ -485,17 +485,193 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>0.0649167083234141</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.0523197567634787</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.0350832916765859</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.0387568299416747</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.0342602563314401</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.0261598783817393</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.0</t>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.0216267017759547</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.0202252449001057</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.0171301281657201</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.0115140793259018</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.0111166116673483</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.0101126224500529</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.0059557734922276</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.0058493949882694</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.0055583058336741</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.0030310759980929</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.0030035183742677</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.0029246974941347</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.001529316810959</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.0015223009773643</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.0015017591871338</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.0007681663222768</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.0007663961593273</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.0007611504886821</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.0003849682426131</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.0003845236504784</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.0003831980796636</t>
         </is>
       </c>
     </row>

--- a/app/tables/tabla_pf.xlsx
+++ b/app/tables/tabla_pf.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.0701665833531719</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.0649167083234141</t>
+          <t>3.16666666666667</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.0523197567634787</t>
+          <t>8.02777777777778</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.0350832916765859</t>
+          <t>2.83333333333333</t>
         </is>
       </c>
     </row>
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.0387568299416747</t>
+          <t>1.89912280701754</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.0342602563314401</t>
+          <t>1.6066674361342</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.0261598783817393</t>
+          <t>1.26754385964912</t>
         </is>
       </c>
     </row>
@@ -529,17 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.0216267017759547</t>
+          <t>1.47612029496374</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.0202252449001057</t>
+          <t>0.178931125203831</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.0171301281657201</t>
+          <t>0.423002512053807</t>
         </is>
       </c>
     </row>
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.0115140793259018</t>
+          <t>1.41551170980496</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.0111166116673483</t>
+          <t>0.0036734005949488</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.0101126224500529</t>
+          <t>0.0606085851587816</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.0059557734922276</t>
+          <t>1.41421415763018</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.0058493949882694</t>
+          <t>1.68364164609969e-06</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0055583058336741</t>
+          <t>0.0012975521747733</t>
         </is>
       </c>
     </row>
@@ -595,83 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.0030310759980929</t>
+          <t>1.41421356237322</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.0030035183742677</t>
+          <t>3.5438318946034997e-13</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.0029246974941347</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0.001529316810959</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0.0015223009773643</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.0015017591871338</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0.0007681663222768</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0.0007663961593273</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.0007611504886821</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0.0003849682426131</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0.0003845236504784</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.0003831980796636</t>
+          <t>5.95256961943846e-07</t>
         </is>
       </c>
     </row>
